--- a/data/trans_camb/P23_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 8,1</t>
+          <t>-1,83; 18,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 0,21</t>
+          <t>-7,33; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 4,13</t>
+          <t>-4,78; 15,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 8,93</t>
+          <t>-5,21; 8,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 6,42</t>
+          <t>-6,09; 7,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 1,72</t>
+          <t>-8,83; 6,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 4,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 10,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 5,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 8,69</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 57,76</t>
+          <t>-14,17; 234,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 3,33</t>
+          <t>-41,29; 97,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 27,95</t>
+          <t>-26,58; 189,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 88,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 59,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 79,13</t>
+          <t>-29,68; 85,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 47,11</t>
+          <t>-32,84; 76,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 12,76</t>
+          <t>-47,02; 65,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 32,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 93,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,78; 49,81</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-26,34; 82,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,9</t>
+          <t>-1,65; 8,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 8,62</t>
+          <t>0,19; 10,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,2</t>
+          <t>-3,56; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,74</t>
+          <t>-3,39; 6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,43</t>
+          <t>-3,31; 6,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,15</t>
+          <t>-5,58; 5,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 6,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 6,71</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 4,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 50,89</t>
+          <t>-13,77; 97,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 86,94</t>
+          <t>-0,88; 116,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 86,29</t>
+          <t>-28,89; 76,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 59,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 57,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 73,75</t>
+          <t>-21,36; 66,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 42,28</t>
+          <t>-20,97; 68,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 58,83</t>
+          <t>-35,29; 56,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 67,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,42; 66,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 68,86</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 48,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 7,75</t>
+          <t>-6,04; 5,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,79</t>
+          <t>-3,9; 7,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,58</t>
+          <t>-6,22; 6,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,03</t>
+          <t>1,54; 12,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,81</t>
+          <t>0,78; 10,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,39</t>
+          <t>-7,75; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 7,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 7,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 3,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>57,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 111,68</t>
+          <t>-44,26; 83,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 114,55</t>
+          <t>-27,95; 122,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 141,91</t>
+          <t>-46,03; 109,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 103,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 96,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 67,72</t>
+          <t>8,26; 125,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 85,08</t>
+          <t>4,88; 113,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 80,95</t>
+          <t>-50,53; 28,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 77,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 83,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 86,27</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-36,87; 33,68</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,03</t>
+          <t>-5,63; 6,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,77</t>
+          <t>-7,43; 2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,31</t>
+          <t>-0,95; 9,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,41</t>
+          <t>-3,06; 6,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 5,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 2,96</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 37,8</t>
+          <t>-34,53; 55,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 39,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 53,66</t>
+          <t>-43,52; 20,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 58,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 53,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,04; 54,99</t>
+          <t>-8,4; 89,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 40,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 38,67</t>
+          <t>-21,45; 59,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 45,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 48,6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; 25,09</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 5,13</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 5,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 3,69</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 6,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 5,87</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 2,6</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,82</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 4,64</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 2,24</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 49,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 49,64</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,5; 35,03</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 55,64</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 52,27</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 23,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 41,63</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 40,33</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; 19,44</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
